--- a/src/test/resources/UserLoginDetails.xlsx
+++ b/src/test/resources/UserLoginDetails.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EACE0FA-8BE3-4165-BC38-01A3AACC1621}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2675AF30-8A8F-40B2-914D-2E07E5A53F80}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,19 +20,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="7">
   <si>
     <t>Email</t>
   </si>
   <si>
     <t>Password</t>
   </si>
+  <si>
+    <t>askmail@email.com</t>
+  </si>
+  <si>
+    <t>abc123</t>
+  </si>
+  <si>
+    <t>askmail@ymail.com</t>
+  </si>
+  <si>
+    <t>askmail@gmail.com</t>
+  </si>
+  <si>
+    <t>email@askmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,6 +64,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -57,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -65,15 +89,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -352,16 +395,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -372,8 +415,237 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{54C41AF2-0238-4AF4-B11F-CF120E0D90E7}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{46DCE6AC-F0BF-4642-B508-004A14C8885A}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{EBAD06F9-E74C-4893-B652-EC2586CD23F7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>